--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF221B4-57C1-4A80-A5F0-672532743CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99EC70-7B81-4655-893B-910971BDF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>question</t>
   </si>
@@ -49,12 +43,6 @@
   </si>
   <si>
     <t>picpath</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>image\pic.png</t>
@@ -415,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEF95E-08A4-4BEB-913A-99C70BCF58D5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,46 +418,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E99EC70-7B81-4655-893B-910971BDF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D36731-0392-46BD-A4B9-1E91E1E6884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>picpath</t>
   </si>
   <si>
-    <t>image\pic.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">What Is The Pass Marks Of Students </t>
   </si>
   <si>
     <t>Students Have To Get 50 Out Of 100</t>
+  </si>
+  <si>
+    <t>uploaded_images\pic.png</t>
   </si>
 </sst>
 </file>
@@ -406,13 +406,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -429,13 +429,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D36731-0392-46BD-A4B9-1E91E1E6884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C8D9FF-8653-4203-A668-DE892624CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>question</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>uploaded_images\pic.png</t>
+  </si>
+  <si>
+    <t>What are The Mandatory Documents we need to Upload for a Diya course</t>
+  </si>
+  <si>
+    <t>The Students Have To Upload His/Her Clear Picture, Highest Educational Document,Age Proof,Identaty Proof</t>
   </si>
 </sst>
 </file>
@@ -403,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEF95E-08A4-4BEB-913A-99C70BCF58D5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,6 +444,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C8D9FF-8653-4203-A668-DE892624CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C40814-5EBF-4CDE-848C-264DD13D4EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>question</t>
   </si>
@@ -45,19 +48,94 @@
     <t>picpath</t>
   </si>
   <si>
-    <t xml:space="preserve">What Is The Pass Marks Of Students </t>
-  </si>
-  <si>
-    <t>Students Have To Get 50 Out Of 100</t>
-  </si>
-  <si>
-    <t>uploaded_images\pic.png</t>
-  </si>
-  <si>
-    <t>What are The Mandatory Documents we need to Upload for a Diya course</t>
-  </si>
-  <si>
-    <t>The Students Have To Upload His/Her Clear Picture, Highest Educational Document,Age Proof,Identaty Proof</t>
+    <t>What is the course module ?</t>
+  </si>
+  <si>
+    <t>That depends upon the course in which you are being enrolled. For any further information please communicate with your trainer.</t>
+  </si>
+  <si>
+    <t>Can we choose the mode of our classes by ourselves (Online/ Offline)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If there is any Hybrid mode option (Online &amp; Offline) is available in your centre then you might get a chance to choose the mode. Please communicate with your trainer regarding it.</t>
+  </si>
+  <si>
+    <t>Can we get any kit from Anudip after admission?</t>
+  </si>
+  <si>
+    <t>Yes, you will get the study material related to your course from Anudip.</t>
+  </si>
+  <si>
+    <t>What is the mark to pass the examination?</t>
+  </si>
+  <si>
+    <t>The minimum pass mark is 50. According to your marks the grade will be reflected on your certificate. (Less than or equals to 49- F, 50-59= D, 60-69= C, 70-79= B, 80-89=A &amp; 90-100= A+)</t>
+  </si>
+  <si>
+    <t>How many days it will take to conduct the final examination after completion of the course?</t>
+  </si>
+  <si>
+    <t>Tentatively it will take 7-10 days after completion of the course to conduct the final examination.</t>
+  </si>
+  <si>
+    <t>How long it will take to get the certificate after examination?</t>
+  </si>
+  <si>
+    <t>Tentatively it will take 45-60 days after examination to get the certificate.</t>
+  </si>
+  <si>
+    <t>Can we get the certificate from NSDC?</t>
+  </si>
+  <si>
+    <t>In some courses we have provision for NSDC certification along with Anudip certificate.</t>
+  </si>
+  <si>
+    <t>Will we get only one certificate from Anudip?</t>
+  </si>
+  <si>
+    <t>There are also some specific courses which are eligible for mettl assessment. If you are being enrolled for that very course then you will get a chance to attempt the exam &amp; after completion of your exam will get the both certificate from Anudip &amp; Mettl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From where I should get the certificate? </t>
+  </si>
+  <si>
+    <t>You will get your certificate from your respective centre.</t>
+  </si>
+  <si>
+    <t>Will I get the job opportunity on my domain?</t>
+  </si>
+  <si>
+    <t>You will get various types of opportunities from Anudip. You can take the guidance from your trainer to choose the job.</t>
+  </si>
+  <si>
+    <t>Can we get the opportunity of work from home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is any specific requirement for Work from Home from any employer then you may get this opportunity. </t>
+  </si>
+  <si>
+    <t>Will I get the mock interview session in our centre?</t>
+  </si>
+  <si>
+    <t>Yes, you will definitely get the mock interview session in your centre. Your trainer will conduct the session.</t>
+  </si>
+  <si>
+    <t>What will be the salary package I get as a fresher?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The salary package will always depend on the company &amp; the profile you are being selected for. </t>
+  </si>
+  <si>
+    <t>In case of relocation can we get the facility of accommodation?</t>
+  </si>
+  <si>
+    <t>In some specific projects there is fund for the accommodation only at initial stage. In other cases, you can negotiate with the employer at the interview session (You will get an idea about how to negotiate from your trainer).</t>
+  </si>
+  <si>
+    <t>Can we get the second job opportunity after leaving the first one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays, getting job is quite tough. So, try to retain the first job as long as you can. Learn the skills, processes, system, understand the working culture. This will enhance your professional abilities &amp; skills to get a proper growth in your career. </t>
   </si>
 </sst>
 </file>
@@ -93,8 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEF95E-08A4-4BEB-913A-99C70BCF58D5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,29 +514,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C40814-5EBF-4CDE-848C-264DD13D4EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59BBC9-AB38-42F6-BDCF-145EC771CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
@@ -173,9 +173,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,9 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEF95E-08A4-4BEB-913A-99C70BCF58D5}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -504,17 +500,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,7 +519,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -532,7 +528,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -541,7 +537,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -550,7 +546,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,7 +555,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,7 +564,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -577,7 +573,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -586,7 +582,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -595,7 +591,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -604,7 +600,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -613,7 +609,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -622,7 +618,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -631,7 +627,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -640,7 +636,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>

--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59BBC9-AB38-42F6-BDCF-145EC771CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B58C96-9FA1-4028-866A-39C59783E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>question</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t xml:space="preserve">Nowadays, getting job is quite tough. So, try to retain the first job as long as you can. Learn the skills, processes, system, understand the working culture. This will enhance your professional abilities &amp; skills to get a proper growth in your career. </t>
+  </si>
+  <si>
+    <t>What kind of job role he/she aspires to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Questions to check background of the candidates (like family background, last qualification etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Willing to do job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Willing to relocate or not? If yes then preferences of locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	As most of the job locations are Kolkata surroundings therefore is he okay with the distance? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Willing to do rotational Shift?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Expected Salary as a fresher? We do have a salary range set for positions as fresher. Is the candidate okay with that? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Is the candidate okay with the class timings/attendance percentage set by Anudip parameters to be able to get placement benefits? </t>
   </si>
 </sst>
 </file>
@@ -488,9 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEF95E-08A4-4BEB-913A-99C70BCF58D5}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -645,6 +671,46 @@
       </c>
       <c r="C16" s="1"/>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/questions_answers.xlsx
+++ b/questions_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chataddb\stubot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B58C96-9FA1-4028-866A-39C59783E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A1B98-2E22-4094-BE96-F12612DD7C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DAF3C1D-9B04-428E-B9FE-47A514BA530F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>question</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">	Is the candidate okay with the class timings/attendance percentage set by Anudip parameters to be able to get placement benefits? </t>
+  </si>
+  <si>
+    <t>Test Question</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEF95E-08A4-4BEB-913A-99C70BCF58D5}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,6 +714,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
